--- a/Game-Analysis/maidianAnalysis/埋点分析功能列表.xlsx
+++ b/Game-Analysis/maidianAnalysis/埋点分析功能列表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>功能列表</t>
   </si>
@@ -996,7 +996,45 @@
     <t>数据挖掘</t>
   </si>
   <si>
-    <t>dataMining</t>
+    <t>dataMining/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">用户分类
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">根据输入的用户特征，来进行分类。其中，数据集中最后一列为需要预测的特征，会自动进行正则化以及丢掉缺失数据。
+还可以对不平衡的数据集进行插补。
+目前默认采用三种分类算法，分别为决策树，随机森林，逻辑回归。
+能自动生成结果，包括混淆矩阵的各个指标，以及重要的结果参数。</t>
+    </r>
+  </si>
+  <si>
+    <t>userClassify/classifyUsers</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">用户聚类
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">对用户进行聚类。可以在里面选择需要的聚类模型，输入包括所有训练特征，不含要预测的特征。
+ 以后可以考虑分离各个聚类模型。</t>
+    </r>
+  </si>
+  <si>
+    <t>userClassify/clusterUsers</t>
   </si>
 </sst>
 </file>
@@ -1277,10 +1315,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:F60"/>
+  <dimension ref="A3:F63"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B63" activeCellId="0" sqref="B63"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B66" activeCellId="0" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1613,8 +1651,26 @@
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
     </row>
+    <row r="61" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F61" s="13"/>
+    </row>
+    <row r="63" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F63" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="39">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="A4:B4"/>
@@ -1652,6 +1708,8 @@
     <mergeCell ref="E58:F58"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="D60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E63:F63"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
